--- a/exposan/reclaimer/data/_impact_item.xlsx
+++ b/exposan/reclaimer/data/_impact_item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torimorgan/Documents/GitHub/EXPOsan/exposan/reclaimer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD42C485-3D45-F44A-894B-50B5CCD8CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2A122E-1EFE-5A49-85D5-788174D35340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34580" yWindow="860" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>Metal</t>
+  </si>
+  <si>
+    <t>Titanium</t>
+  </si>
+  <si>
+    <t>PVC</t>
   </si>
 </sst>
 </file>
@@ -220,24 +226,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,15 +249,15 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +585,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -773,10 +767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28627DAA-889C-6942-A3B5-3C8A993554C1}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,25 +780,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -816,16 +810,16 @@
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.53</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0.51</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
@@ -849,7 +843,7 @@
       <c r="E3" s="6">
         <v>0.31</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -873,7 +867,7 @@
       <c r="E4" s="6">
         <v>1.19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -888,16 +882,16 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>300</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>218</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>385</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G5" t="s">
@@ -912,16 +906,16 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G6" t="s">
@@ -936,16 +930,16 @@
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>1.97</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1.93</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G7" t="s">
@@ -960,16 +954,16 @@
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G8" t="s">
@@ -984,16 +978,16 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>4.33</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>3.07</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>5.5</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G9" t="s">
@@ -1008,19 +1002,19 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f>4.33+0.65</f>
         <v>4.9800000000000004</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f>D9+0.58</f>
         <v>3.65</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f>E9+0.71</f>
         <v>6.21</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G10" t="s">
@@ -1035,16 +1029,16 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>2.5499999999999998</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>2.13</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>3.15</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G11" t="s">
@@ -1059,16 +1053,16 @@
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>197</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>186</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>208</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1083,16 +1077,16 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>0.19400000000000001</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>0.52600000000000002</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G13" t="s">
@@ -1106,18 +1100,18 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>7.3543247433570356</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <f>C14-(C14*0.25)</f>
         <v>5.5157435575177765</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <f>C14+(C14*0.25)</f>
         <v>9.1929059291962947</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G14" t="s">
@@ -1131,16 +1125,16 @@
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>8.5937041260028693</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>7.7343337134025827</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>9.4530745386031576</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G15" t="s">
@@ -1154,18 +1148,18 @@
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>268.396240539242</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <f>C16-(C16*0.25)</f>
         <v>201.29718040443151</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <f>C16+(C16*0.25)</f>
         <v>335.49530067405249</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G16" t="s">
@@ -1179,18 +1173,18 @@
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>13.937562</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <f>C17-(C17*0.25)</f>
         <v>10.4531715</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <f>C17+(C17*0.25)</f>
         <v>17.4219525</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G17" t="s">
@@ -1204,18 +1198,18 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>6.5440120000000004</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <f>C18-(C18*0.25)</f>
         <v>4.9080089999999998</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <f>C18+(C18*0.25)</f>
         <v>8.1800150000000009</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G18" t="s">
@@ -1229,18 +1223,18 @@
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>1.844173711</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <f>C19*0.9</f>
         <v>1.6597563399000002</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <f>C19*1.1</f>
         <v>2.0285910821000002</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G19" t="s">
@@ -1254,18 +1248,18 @@
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="10">
         <v>8.779946528</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <f>C20*0.9</f>
         <v>7.9019518752</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <f>C20*1.1</f>
         <v>9.6579411808</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G20" t="s">
@@ -1273,24 +1267,24 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>0.26669555337978518</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <f>C21*0.9</f>
         <v>0.24002599804180666</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <f>C21*1.1</f>
         <v>0.29336510871776372</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G21" t="s">
@@ -1304,19 +1298,69 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <v>9.9703471211247301</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <f>C22*0.9</f>
         <v>8.9733124090122569</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <f>C22*1.1</f>
         <v>10.967381833237203</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>1</v>
+      <c r="F22" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="10">
+        <v>6.0350950799999996</v>
+      </c>
+      <c r="D23" s="4">
+        <f>C23-(C23*0.1)</f>
+        <v>5.4315855719999995</v>
+      </c>
+      <c r="E23" s="4">
+        <f>C23+(C23*0.1)</f>
+        <v>6.6386045879999998</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2.0673798630000002</v>
+      </c>
+      <c r="D24" s="4">
+        <f>C24-(C24*0.1)</f>
+        <v>1.8606418767000001</v>
+      </c>
+      <c r="E24" s="4">
+        <f>C24+(C24*0.1)</f>
+        <v>2.2741178493</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/exposan/reclaimer/data/_impact_item.xlsx
+++ b/exposan/reclaimer/data/_impact_item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torimorgan/Documents/GitHub/EXPOsan/exposan/reclaimer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2A122E-1EFE-5A49-85D5-788174D35340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EEA4B9-1D0A-4345-B359-384D74627D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="35120" yWindow="3520" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -572,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,6 +760,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -770,7 +786,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/exposan/reclaimer/data/_impact_item.xlsx
+++ b/exposan/reclaimer/data/_impact_item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torimorgan/Documents/GitHub/EXPOsan/exposan/reclaimer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EEA4B9-1D0A-4345-B359-384D74627D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAC9023-0E0D-C945-9524-E384CD79ADEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35120" yWindow="3520" windowWidth="28800" windowHeight="16620" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -786,7 +786,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
